--- a/story/Activity Story 活动剧情/act5d0 Code of Brawl 喧闹法则 喧騒の掟/ui_act5d0_firstenter.xlsx
+++ b/story/Activity Story 活动剧情/act5d0 Code of Brawl 喧闹法则 喧騒の掟/ui_act5d0_firstenter.xlsx
@@ -344,7 +344,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Capone"]   And besides, here in Lungmen, you and me are equals, "boss."
+    <t xml:space="preserve">[name="Capone"]   And besides, here in Lungmen, you and me are equals, 'boss.'
 </t>
   </si>
   <si>
@@ -376,7 +376,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Capone"]   Wei Yenwu set some rules for this city. As long as we don't break 'em, we can run our rackets here just like before. Lungmen needs a little "legitimate business."
+    <t xml:space="preserve">[name="Capone"]   Wei Yenwu set some rules for this city. As long as we don't break 'em, we can run our rackets here just like before. Lungmen needs a little 'legitimate business.'
 </t>
   </si>
   <si>
@@ -420,7 +420,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gambino"]   Yo, Capone, do me a favor and torch this tacky joint. Call it "urban beautification." Wei Yenwu'll thank us for tearin' down a tastelessly decorated rathole.
+    <t xml:space="preserve">[name="Gambino"]   Yo, Capone, do me a favor and torch this tacky joint. Call it 'urban beautification.' Wei Yenwu'll thank us for tearin' down a tastelessly decorated rathole.
 </t>
   </si>
   <si>
@@ -432,7 +432,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Emperor"]   Who you callin' "tasteless?"
+    <t xml:space="preserve">[name="Emperor"]   Who you callin' 'tasteless?'
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act5d0 Code of Brawl 喧闹法则 喧騒の掟/ui_act5d0_firstenter.xlsx
+++ b/story/Activity Story 活动剧情/act5d0 Code of Brawl 喧闹法则 喧騒の掟/ui_act5d0_firstenter.xlsx
@@ -300,7 +300,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">11:37 PM \ Cloudy
+    <t xml:space="preserve">11:37 P.M. \ Cloudy
 </t>
   </si>
   <si>
